--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109ED6A0-731A-4ED6-A183-E415F918732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0E330-5FBC-4C21-97FE-45C3EBF13BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2052,23 +2052,23 @@
         <v>70</v>
       </c>
       <c r="K13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2354,19 +2354,19 @@
         <v>94</v>
       </c>
       <c r="K19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2505,23 +2505,23 @@
         <v>106</v>
       </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2754,19 +2754,19 @@
         <v>158</v>
       </c>
       <c r="K27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2805,19 +2805,19 @@
         <v>167</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2854,23 +2854,23 @@
         <v>162</v>
       </c>
       <c r="K29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="17" t="str">
         <f t="shared" ref="P29:P31" si="2">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2905,19 +2905,19 @@
         <v>176</v>
       </c>
       <c r="K30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="17" t="str">
         <f t="shared" si="2"/>
@@ -2954,19 +2954,19 @@
         <v>171</v>
       </c>
       <c r="K31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3005,19 +3005,19 @@
         <v>181</v>
       </c>
       <c r="K32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="17" t="str">
         <f t="shared" ref="P32:P33" si="3">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0E330-5FBC-4C21-97FE-45C3EBF13BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC05E4A5-6D04-4636-8014-448DF33A4FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="193">
   <si>
     <t>Year</t>
   </si>
@@ -767,6 +767,21 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>1st page</t>
+  </si>
+  <si>
+    <t>2nd page</t>
+  </si>
+  <si>
+    <t>3rd page</t>
+  </si>
+  <si>
+    <t>4th page</t>
+  </si>
+  <si>
+    <t>5th page</t>
   </si>
 </sst>
 </file>
@@ -831,7 +846,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +880,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1031,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -1069,6 +1114,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1426,19 +1486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54" style="8" customWidth="1"/>
     <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
     <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
     <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
@@ -1446,7 +1506,7 @@
     <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1534,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
@@ -1518,7 +1578,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2006</v>
       </c>
@@ -1568,17 +1628,18 @@
         <f t="shared" ref="P3:P22" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>2007</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="19" t="s">
         <v>143</v>
       </c>
@@ -1586,28 +1647,28 @@
         <v>138</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -1616,18 +1677,21 @@
         <v>0</v>
       </c>
       <c r="P4" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-"),AND(O4&gt;1,O4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>2007</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D5" s="19" t="s">
         <v>143</v>
       </c>
@@ -1635,28 +1699,28 @@
         <v>138</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
@@ -1665,11 +1729,12 @@
         <v>0</v>
       </c>
       <c r="P5" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K5&gt;1,K5&lt;&gt;"-"),AND(L5&gt;1,L5&lt;&gt;"-"),AND(M5&gt;1,M5&lt;&gt;"-"),AND(N5&gt;1,N5&lt;&gt;"-"),AND(O5&gt;1,O5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>2008</v>
       </c>
@@ -1719,8 +1784,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>2009</v>
       </c>
@@ -1770,8 +1836,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>2009</v>
       </c>
@@ -1819,8 +1886,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2010</v>
       </c>
@@ -1870,8 +1938,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2011</v>
       </c>
@@ -1921,8 +1990,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>2012</v>
       </c>
@@ -1972,8 +2044,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2012</v>
       </c>
@@ -2012,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="7">
         <v>0</v>
@@ -2021,15 +2094,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>2013</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" s="19" t="s">
         <v>143</v>
       </c>
@@ -2037,25 +2113,25 @@
         <v>138</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
       </c>
       <c r="L13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2067,20 +2143,19 @@
         <v>1</v>
       </c>
       <c r="P13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(OR(AND(K13&gt;1,K13&lt;&gt;"-"),AND(L13&gt;1,L13&lt;&gt;"-"),AND(M13&gt;1,M13&lt;&gt;"-"),AND(N13&gt;1,N13&lt;&gt;"-"),AND(O13&gt;1,O13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2013</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="19" t="s">
         <v>143</v>
       </c>
@@ -2088,22 +2163,22 @@
         <v>138</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
@@ -2118,11 +2193,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(OR(AND(K14&gt;1,K14&lt;&gt;"-"),AND(L14&gt;1,L14&lt;&gt;"-"),AND(M14&gt;1,M14&lt;&gt;"-"),AND(N14&gt;1,N14&lt;&gt;"-"),AND(O14&gt;1,O14&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>2014</v>
       </c>
@@ -2157,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2172,8 +2248,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2015</v>
       </c>
@@ -2223,8 +2300,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
@@ -2266,14 +2344,17 @@
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2015</v>
       </c>
@@ -2306,23 +2387,24 @@
         <v>1</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>2016</v>
       </c>
@@ -2372,8 +2454,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2017</v>
       </c>
@@ -2423,8 +2506,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>2018</v>
       </c>
@@ -2457,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2466,14 +2550,15 @@
         <v>1</v>
       </c>
       <c r="O21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="33"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>2018</v>
       </c>
@@ -2523,8 +2608,9 @@
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>2019</v>
       </c>
@@ -2557,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="7">
         <v>0</v>
@@ -2572,8 +2658,9 @@
         <f t="shared" ref="P23:P28" si="1">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q23" s="33"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2019</v>
       </c>
@@ -2609,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="7">
         <v>1</v>
@@ -2621,8 +2708,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q24" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>2020</v>
       </c>
@@ -2672,8 +2762,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>2020</v>
       </c>
@@ -2703,26 +2794,27 @@
         <v>147</v>
       </c>
       <c r="K26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q26" s="34"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>2021</v>
       </c>
@@ -2772,8 +2864,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q27" s="34"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>2022</v>
       </c>
@@ -2823,8 +2916,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q28" s="34"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>2022</v>
       </c>
@@ -2872,8 +2966,9 @@
         <f t="shared" ref="P29:P31" si="2">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q29" s="34"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>2023</v>
       </c>
@@ -2923,8 +3018,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="34"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>2023</v>
       </c>
@@ -2972,8 +3068,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>2024</v>
       </c>
@@ -3023,8 +3122,9 @@
         <f t="shared" ref="P32:P33" si="3">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q32" s="35"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>2024</v>
       </c>
@@ -3072,6 +3172,19 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="Q33" s="35"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q34" s="35"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="35"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q36" s="35"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q37" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC05E4A5-6D04-4636-8014-448DF33A4FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A669D5-6530-43A2-AB9C-3AD06B09B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="199">
   <si>
     <t>Year</t>
   </si>
@@ -217,12 +217,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>50th Anniversary - Signing of the Treaty of Rome</t>
   </si>
   <si>
@@ -631,9 +625,6 @@
     <t>High convenience set of tables table of actual coins with photos</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Obv: With mint letter</t>
   </si>
   <si>
@@ -782,6 +773,33 @@
   </si>
   <si>
     <t>5th page</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Album_page</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1049,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -1085,6 +1103,21 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,20 +1148,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1492,14 +1513,14 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
     <col min="2" max="2" width="54" style="8" customWidth="1"/>
-    <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="5" width="28.1796875" style="8" customWidth="1"/>
     <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
     <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
     <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
@@ -1507,107 +1528,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="2"/>
+      <c r="Q2" s="36" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2006</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
@@ -1628,8 +1652,8 @@
         <f t="shared" ref="P3:P22" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>188</v>
+      <c r="Q3" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1637,29 +1661,31 @@
         <v>2007</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="D4" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
@@ -1680,38 +1706,38 @@
         <f>IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-"),AND(O4&gt;1,O4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="Q4" s="31"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>2007</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
@@ -1732,38 +1758,38 @@
         <f>IF(OR(AND(K5&gt;1,K5&lt;&gt;"-"),AND(L5&gt;1,L5&lt;&gt;"-"),AND(M5&gt;1,M5&lt;&gt;"-"),AND(N5&gt;1,N5&lt;&gt;"-"),AND(O5&gt;1,O5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="Q5" s="31"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>2008</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
@@ -1784,38 +1810,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>2009</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
@@ -1836,36 +1862,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>2009</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="D8" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
@@ -1886,38 +1914,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2010</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
@@ -1938,38 +1966,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2011</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1990,8 +2018,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" s="32" t="s">
-        <v>189</v>
+      <c r="Q10" s="22" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1999,31 +2027,31 @@
         <v>2012</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
@@ -2044,36 +2072,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q11" s="32"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2012</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="J12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -2094,38 +2124,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q12" s="32"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>2013</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="J13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -2146,36 +2176,38 @@
         <f>IF(OR(AND(K13&gt;1,K13&lt;&gt;"-"),AND(L13&gt;1,L13&lt;&gt;"-"),AND(M13&gt;1,M13&lt;&gt;"-"),AND(N13&gt;1,N13&lt;&gt;"-"),AND(O13&gt;1,O13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2013</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="J14" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7">
         <v>2</v>
@@ -2196,38 +2228,38 @@
         <f>IF(OR(AND(K14&gt;1,K14&lt;&gt;"-"),AND(L14&gt;1,L14&lt;&gt;"-"),AND(M14&gt;1,M14&lt;&gt;"-"),AND(N14&gt;1,N14&lt;&gt;"-"),AND(O14&gt;1,O14&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>2014</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="J15" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
@@ -2248,38 +2280,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q15" s="32"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2015</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="J16" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -2300,36 +2332,36 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" s="32"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J17" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -2350,8 +2382,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q17" s="33" t="s">
-        <v>190</v>
+      <c r="Q17" s="23" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2359,29 +2391,31 @@
         <v>2015</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="J18" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7">
         <v>1</v>
@@ -2402,38 +2436,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>2016</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="J19" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7">
         <v>1</v>
@@ -2454,38 +2488,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q19" s="33"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2017</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="J20" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7">
         <v>1</v>
@@ -2506,36 +2540,36 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>2018</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="J21" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K21" s="7">
         <v>2</v>
@@ -2556,38 +2590,38 @@
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="Q21" s="33"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>2018</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7">
         <v>1</v>
@@ -2608,36 +2642,36 @@
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>2019</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="J23" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7">
         <v>1</v>
@@ -2658,36 +2692,36 @@
         <f t="shared" ref="P23:P28" si="1">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="Q23" s="33"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2019</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -2708,8 +2742,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q24" s="34" t="s">
-        <v>191</v>
+      <c r="Q24" s="24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2717,31 +2751,31 @@
         <v>2020</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="J25" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2762,36 +2796,36 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q25" s="34"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>2020</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -2812,38 +2846,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>2021</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="K27" s="7">
         <v>1</v>
@@ -2864,38 +2898,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q27" s="34"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>2022</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -2916,36 +2950,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q28" s="34"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>2022</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="D29" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
@@ -2966,38 +3002,38 @@
         <f t="shared" ref="P29:P31" si="2">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>2023</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7">
         <v>1</v>
@@ -3018,36 +3054,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>2023</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K31" s="7">
         <v>1</v>
@@ -3068,8 +3104,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q31" s="35" t="s">
-        <v>192</v>
+      <c r="Q31" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3077,31 +3113,31 @@
         <v>2024</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K32" s="7">
         <v>1</v>
@@ -3122,36 +3158,36 @@
         <f t="shared" ref="P32:P33" si="3">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="Q32" s="35"/>
+      <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>2024</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K33" s="7">
         <v>0</v>
@@ -3172,19 +3208,19 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q33" s="35"/>
+      <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q34" s="35"/>
+      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q35" s="35"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q36" s="35"/>
+      <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q37" s="35"/>
+      <c r="Q37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3310,13 +3346,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3324,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3335,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3346,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3357,10 +3393,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3368,10 +3404,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3379,10 +3415,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A669D5-6530-43A2-AB9C-3AD06B09B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE892CCD-17BD-40E1-851D-22542DFDE4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1118,6 +1118,9 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,9 +1150,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1513,7 +1513,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1528,36 +1528,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="3" t="s">
         <v>190</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="2"/>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="26" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1792,19 +1792,19 @@
         <v>42</v>
       </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="17" t="str">
         <f t="shared" si="0"/>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE892CCD-17BD-40E1-851D-22542DFDE4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED84FA-4D5D-49BF-8A30-CADD72AE5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1513,7 +1513,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="17" t="str">
         <f t="shared" ref="P3:P22" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1697,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="17" t="str">
         <f>IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-"),AND(O4&gt;1,O4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="17" t="str">
         <f>IF(OR(AND(K5&gt;1,K5&lt;&gt;"-"),AND(L5&gt;1,L5&lt;&gt;"-"),AND(M5&gt;1,M5&lt;&gt;"-"),AND(N5&gt;1,N5&lt;&gt;"-"),AND(O5&gt;1,O5&lt;&gt;"-")),"Can exchange","")</f>
@@ -1850,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -1948,13 +1948,13 @@
         <v>52</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2262,19 +2262,19 @@
         <v>76</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="7">
         <v>1</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2317,16 +2317,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2364,16 +2364,16 @@
         <v>84</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="7">
         <v>1</v>
@@ -2525,16 +2525,16 @@
         <v>1</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
         <v>1</v>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED84FA-4D5D-49BF-8A30-CADD72AE5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9771C16F-4633-4C96-874A-E6D81B51AEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1513,7 +1513,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2674,23 +2674,23 @@
         <v>108</v>
       </c>
       <c r="K23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="17" t="str">
         <f t="shared" ref="P23:P28" si="1">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="Q23" s="23"/>
     </row>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9771C16F-4633-4C96-874A-E6D81B51AEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64522934-DA8E-4467-83D4-B5F4D28829DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="201">
   <si>
     <t>Year</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>600.000</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,6 +934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1061,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -1133,9 +1145,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,21 +1160,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1215,6 +1229,71 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1236,9 +1315,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1513,7 +1592,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1538,21 +1617,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1649,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="17" t="str">
-        <f t="shared" ref="P3:P22" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="P3:P23" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="Q3" s="21" t="s">
@@ -1814,10 +1893,10 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>119</v>
@@ -1826,42 +1905,39 @@
         <v>140</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>135</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7">
+        <v>200</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="17"/>
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1869,10 +1945,10 @@
         <v>2009</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>195</v>
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>140</v>
@@ -1881,19 +1957,19 @@
         <v>136</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
@@ -1905,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7">
         <v>1</v>
@@ -1918,13 +1994,13 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>140</v>
@@ -1933,22 +2009,22 @@
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
@@ -1970,10 +2046,10 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>119</v>
@@ -1985,19 +2061,19 @@
         <v>136</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -2024,10 +2100,10 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>119</v>
@@ -2039,19 +2115,19 @@
         <v>136</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
@@ -2066,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2079,10 +2155,10 @@
         <v>2012</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>140</v>
@@ -2091,19 +2167,19 @@
         <v>136</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -2115,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2128,13 +2204,13 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>196</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>140</v>
@@ -2143,19 +2219,19 @@
         <v>136</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -2173,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="17" t="str">
-        <f>IF(OR(AND(K13&gt;1,K13&lt;&gt;"-"),AND(L13&gt;1,L13&lt;&gt;"-"),AND(M13&gt;1,M13&lt;&gt;"-"),AND(N13&gt;1,N13&lt;&gt;"-"),AND(O13&gt;1,O13&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q13" s="22"/>
@@ -2183,10 +2259,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>140</v>
@@ -2195,22 +2271,22 @@
         <v>136</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
@@ -2226,19 +2302,19 @@
       </c>
       <c r="P14" s="17" t="str">
         <f>IF(OR(AND(K14&gt;1,K14&lt;&gt;"-"),AND(L14&gt;1,L14&lt;&gt;"-"),AND(M14&gt;1,M14&lt;&gt;"-"),AND(N14&gt;1,N14&lt;&gt;"-"),AND(O14&gt;1,O14&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>140</v>
@@ -2247,22 +2323,22 @@
         <v>136</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="7">
         <v>1</v>
@@ -2277,17 +2353,17 @@
         <v>1</v>
       </c>
       <c r="P15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-"),AND(M15&gt;1,M15&lt;&gt;"-"),AND(N15&gt;1,N15&lt;&gt;"-"),AND(O15&gt;1,O15&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
       <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>119</v>
@@ -2299,19 +2375,19 @@
         <v>136</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -2339,9 +2415,11 @@
         <v>2015</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D17" s="19" t="s">
         <v>140</v>
       </c>
@@ -2349,19 +2427,19 @@
         <v>136</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7">
         <v>1</v>
@@ -2391,11 +2469,9 @@
         <v>2015</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>197</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="19" t="s">
         <v>140</v>
       </c>
@@ -2403,19 +2479,19 @@
         <v>136</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7">
         <v>1</v>
@@ -2440,13 +2516,13 @@
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>119</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>140</v>
@@ -2455,19 +2531,19 @@
         <v>136</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7">
         <v>1</v>
@@ -2492,10 +2568,10 @@
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>119</v>
@@ -2507,19 +2583,19 @@
         <v>136</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7">
         <v>1</v>
@@ -2544,12 +2620,14 @@
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D21" s="19" t="s">
         <v>140</v>
       </c>
@@ -2557,22 +2635,22 @@
         <v>136</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="7">
         <v>1</v>
@@ -2588,7 +2666,7 @@
       </c>
       <c r="P21" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="Q21" s="23"/>
     </row>
@@ -2597,11 +2675,9 @@
         <v>2018</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="19" t="s">
         <v>140</v>
       </c>
@@ -2609,22 +2685,22 @@
         <v>136</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="7">
         <v>1</v>
@@ -2633,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="7">
         <v>1</v>
@@ -2646,12 +2722,14 @@
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D23" s="19" t="s">
         <v>140</v>
       </c>
@@ -2659,22 +2737,22 @@
         <v>136</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7">
         <v>1</v>
@@ -2689,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f t="shared" ref="P23:P28" si="1">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
       <c r="Q23" s="23"/>
@@ -2699,7 +2777,7 @@
         <v>2019</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="19" t="s">
@@ -2709,22 +2787,22 @@
         <v>136</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
@@ -2733,14 +2811,14 @@
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="7">
         <v>1</v>
       </c>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="P24:P29" si="1">IF(OR(AND(K24&gt;1,K24&lt;&gt;"-"),AND(L24&gt;1,L24&lt;&gt;"-"),AND(M24&gt;1,M24&lt;&gt;"-"),AND(N24&gt;1,N24&lt;&gt;"-"),AND(O24&gt;1,O24&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
       <c r="Q24" s="24" t="s">
         <v>188</v>
@@ -2748,14 +2826,12 @@
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="19" t="s">
         <v>140</v>
       </c>
@@ -2763,19 +2839,19 @@
         <v>136</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2803,9 +2879,11 @@
         <v>2020</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D26" s="19" t="s">
         <v>140</v>
       </c>
@@ -2813,19 +2891,19 @@
         <v>136</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -2850,14 +2928,12 @@
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="19" t="s">
         <v>140</v>
       </c>
@@ -2865,19 +2941,19 @@
         <v>136</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K27" s="7">
         <v>1</v>
@@ -2902,10 +2978,10 @@
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>119</v>
@@ -2917,19 +2993,19 @@
         <v>136</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -2957,10 +3033,10 @@
         <v>2022</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>198</v>
+        <v>147</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>140</v>
@@ -2969,25 +3045,25 @@
         <v>136</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
       </c>
       <c r="L29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2999,20 +3075,20 @@
         <v>1</v>
       </c>
       <c r="P29" s="17" t="str">
-        <f t="shared" ref="P29:P31" si="2">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>148</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>140</v>
@@ -3021,25 +3097,25 @@
         <v>136</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7">
         <v>1</v>
       </c>
       <c r="L30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3051,8 +3127,8 @@
         <v>1</v>
       </c>
       <c r="P30" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" ref="P30:P32" si="2">IF(OR(AND(K30&gt;1,K30&lt;&gt;"-"),AND(L30&gt;1,L30&lt;&gt;"-"),AND(M30&gt;1,M30&lt;&gt;"-"),AND(N30&gt;1,N30&lt;&gt;"-"),AND(O30&gt;1,O30&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
       <c r="Q30" s="24"/>
     </row>
@@ -3061,9 +3137,11 @@
         <v>2023</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D31" s="19" t="s">
         <v>140</v>
       </c>
@@ -3071,19 +3149,19 @@
         <v>136</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7">
         <v>1</v>
@@ -3110,14 +3188,12 @@
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="19" t="s">
         <v>140</v>
       </c>
@@ -3125,19 +3201,19 @@
         <v>136</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7">
         <v>1</v>
@@ -3155,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="17" t="str">
-        <f t="shared" ref="P32:P33" si="3">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q32" s="25"/>
@@ -3165,9 +3241,11 @@
         <v>2024</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D33" s="19" t="s">
         <v>140</v>
       </c>
@@ -3175,42 +3253,89 @@
         <v>136</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
+      <c r="P33" s="17" t="str">
+        <f t="shared" ref="P33:P34" si="3">IF(OR(AND(K33&gt;1,K33&lt;&gt;"-"),AND(L33&gt;1,L33&lt;&gt;"-"),AND(M33&gt;1,M33&lt;&gt;"-"),AND(N33&gt;1,N33&lt;&gt;"-"),AND(O33&gt;1,O33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="25"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K34" s="7">
         <v>0</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N34" s="7">
         <v>0</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O34" s="7">
         <v>0</v>
       </c>
-      <c r="P33" s="17" t="str">
+      <c r="P34" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q33" s="25"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3230,11 +3355,11 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:O25">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K3:O6 K8:O26">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3245,11 +3370,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:O26">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+  <conditionalFormatting sqref="K27:O27">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3260,9 +3385,99 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:O27 K29:O29 K31:O31">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+  <conditionalFormatting sqref="K28:O28 K30:O30 K32:O32">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:O29 K31:O31">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:O34">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:O33">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -3275,24 +3490,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:O28 K30:O30">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:O33">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3305,9 +3505,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:O32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64522934-DA8E-4467-83D4-B5F4D28829DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E259DA-4494-475B-A376-047633583EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,6 +1133,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,6 +1146,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,26 +1166,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1269,31 +1270,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1315,9 +1291,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1592,7 +1568,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1607,36 +1583,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
         <v>190</v>
       </c>
@@ -1713,7 +1689,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
@@ -1767,7 +1743,7 @@
         <v>37</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
@@ -1907,19 +1883,19 @@
       <c r="E7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="27" t="s">
         <v>199</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="27" t="s">
         <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1929,7 +1905,7 @@
         <v>199</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>199</v>
@@ -2024,7 +2000,7 @@
         <v>48</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
@@ -2033,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="7">
         <v>1</v>
@@ -2085,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="7">
         <v>1</v>
@@ -3476,7 +3452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3491,7 +3467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3506,7 +3482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E259DA-4494-475B-A376-047633583EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E264D98-1038-48A6-BE26-7A529617A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,7 +1568,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3294,19 +3294,19 @@
         <v>179</v>
       </c>
       <c r="K34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="17" t="str">
         <f t="shared" si="3"/>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E264D98-1038-48A6-BE26-7A529617A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1397CF-0EF8-46EC-9719-5A2BB2EC90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7970" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="N11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
         <v>1</v>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1397CF-0EF8-46EC-9719-5A2BB2EC90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABCE46-ED2F-4353-961C-61CD84245190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7970" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="N11:P11"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1795,7 +1795,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
@@ -2167,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="17" t="str">
         <f t="shared" si="0"/>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABCE46-ED2F-4353-961C-61CD84245190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654C353-4E0F-4708-96FF-C345DE659734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
   <si>
     <t>Year</t>
   </si>
@@ -806,6 +806,21 @@
   </si>
   <si>
     <t>600.000</t>
+  </si>
+  <si>
+    <t>Saarland, Saarschleife</t>
+  </si>
+  <si>
+    <t>6.116.000</t>
+  </si>
+  <si>
+    <t>6.416.000</t>
+  </si>
+  <si>
+    <t>7.316.000</t>
+  </si>
+  <si>
+    <t>4.316.000</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1187,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1291,9 +1338,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1568,7 +1615,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3315,9 +3362,93 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="17" t="str">
+        <f t="shared" ref="P35:P36" si="4">IF(OR(AND(K35&gt;1,K35&lt;&gt;"-"),AND(L35&gt;1,L35&lt;&gt;"-"),AND(M35&gt;1,M35&lt;&gt;"-"),AND(N35&gt;1,N35&lt;&gt;"-"),AND(O35&gt;1,O35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3332,8 +3463,68 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:O6 K8:O26">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:O27">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:O28 K30:O30 K32:O32">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:O29 K31:O31">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:O34">
     <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -3346,9 +3537,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:O27">
+  <conditionalFormatting sqref="K33:O33">
     <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -3361,9 +3552,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:O28 K30:O30 K32:O32">
+  <conditionalFormatting sqref="K7">
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -3376,9 +3567,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:O29 K31:O31">
+  <conditionalFormatting sqref="L7">
     <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -3391,39 +3582,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:O34">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:O33">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -3436,11 +3597,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3451,11 +3612,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O7))))</formula>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3466,9 +3627,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
+  <conditionalFormatting sqref="K35:O35">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3481,9 +3642,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
+  <conditionalFormatting sqref="K36:O36">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654C353-4E0F-4708-96FF-C345DE659734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AABDDD-41CC-4896-9BC8-B4642F209071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="207">
   <si>
     <t>Year</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>4.316.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
   </si>
 </sst>
 </file>
@@ -1187,14 +1190,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1211,23 +1215,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1338,9 +1325,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1615,7 +1602,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3393,19 +3380,19 @@
         <v>203</v>
       </c>
       <c r="K35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="17" t="str">
         <f t="shared" ref="P35:P36" si="4">IF(OR(AND(K35&gt;1,K35&lt;&gt;"-"),AND(L35&gt;1,L35&lt;&gt;"-"),AND(M35&gt;1,M35&lt;&gt;"-"),AND(N35&gt;1,N35&lt;&gt;"-"),AND(O35&gt;1,O35&lt;&gt;"-")),"Can exchange","")</f>
@@ -3452,6 +3439,9 @@
       <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P37" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="Q37" s="25"/>
     </row>
   </sheetData>
@@ -3463,7 +3453,7 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:O6 K8:O26">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -3478,7 +3468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:O27">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -3493,7 +3483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:O28 K30:O30 K32:O32">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -3508,7 +3498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:O29 K31:O31">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -3523,7 +3513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:O34">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -3538,7 +3528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:O33">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -3553,7 +3543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -3568,7 +3558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3583,7 +3573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3598,7 +3588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3613,7 +3603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3628,7 +3618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:O35">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3643,7 +3633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:O36">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AABDDD-41CC-4896-9BC8-B4642F209071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23AFD8-3B5A-47F6-8578-039001309E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -778,15 +781,9 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Album_page</t>
-  </si>
-  <si>
     <t>Treaty of Rome</t>
   </si>
   <si>
@@ -823,7 +820,13 @@
     <t>4.316.000</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>$Album_page</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1073,16 +1076,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,18 +1277,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1157,6 +1286,97 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,6 +1403,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1602,1852 +1825,1873 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomRight" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54" style="8" customWidth="1"/>
-    <col min="3" max="5" width="28.1796875" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
-    <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="10" width="12.6328125" style="7" customWidth="1"/>
+    <col min="11" max="15" width="3.6328125" style="7" customWidth="1"/>
+    <col min="16" max="17" width="12.6328125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55"/>
+      <c r="B2" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="16" t="str">
+        <f>IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="D4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="16" t="str">
+        <f t="shared" ref="Q4:Q37" si="0">IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-"),AND(O4&gt;1,O4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-      <c r="P3" s="17" t="str">
-        <f t="shared" ref="P3:P23" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="17" t="str">
-        <f>IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-"),AND(O4&gt;1,O4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="17" t="str">
-        <f>IF(OR(AND(K5&gt;1,K5&lt;&gt;"-"),AND(L5&gt;1,L5&lt;&gt;"-"),AND(M5&gt;1,M5&lt;&gt;"-"),AND(N5&gt;1,N5&lt;&gt;"-"),AND(O5&gt;1,O5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="17" t="str">
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
         <v>2008</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="17" t="str">
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="17" t="str">
+      <c r="E7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="17" t="str">
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="19" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="17" t="str">
+      <c r="F9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="29">
+        <v>1</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="29">
+        <v>1</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D10" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E10" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="17" t="str">
+      <c r="F10" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="34">
+        <v>1</v>
+      </c>
+      <c r="L10" s="34">
+        <v>1</v>
+      </c>
+      <c r="M10" s="34">
+        <v>1</v>
+      </c>
+      <c r="N10" s="34">
+        <v>1</v>
+      </c>
+      <c r="O10" s="34">
+        <v>1</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="19" t="s">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="17" t="str">
+      <c r="F11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="17" t="str">
-        <f>IF(OR(AND(K14&gt;1,K14&lt;&gt;"-"),AND(L14&gt;1,L14&lt;&gt;"-"),AND(M14&gt;1,M14&lt;&gt;"-"),AND(N14&gt;1,N14&lt;&gt;"-"),AND(O14&gt;1,O14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="7">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="17" t="str">
-        <f>IF(OR(AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-"),AND(M15&gt;1,M15&lt;&gt;"-"),AND(N15&gt;1,N15&lt;&gt;"-"),AND(O15&gt;1,O15&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="17" t="str">
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="19" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="17" t="str">
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q17" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="19" t="s">
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="17" t="str">
+      <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q18" s="23"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="19" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1</v>
-      </c>
-      <c r="P19" s="17" t="str">
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="40">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="45">
+        <v>1</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45">
+        <v>1</v>
+      </c>
+      <c r="N16" s="45">
+        <v>1</v>
+      </c>
+      <c r="O16" s="45">
+        <v>1</v>
+      </c>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D17" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E17" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="P20" s="17" t="str">
+      <c r="F17" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="34">
+        <v>1</v>
+      </c>
+      <c r="L17" s="34">
+        <v>1</v>
+      </c>
+      <c r="M17" s="34">
+        <v>1</v>
+      </c>
+      <c r="N17" s="34">
+        <v>1</v>
+      </c>
+      <c r="O17" s="34">
+        <v>1</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="19" t="s">
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
-      <c r="P21" s="17" t="str">
+      <c r="F18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q21" s="23"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>2018</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>2</v>
       </c>
-      <c r="L22" s="7">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
-      <c r="P22" s="17" t="str">
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="40">
         <v>2018</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="K23" s="45">
+        <v>1</v>
+      </c>
+      <c r="L23" s="45">
+        <v>1</v>
+      </c>
+      <c r="M23" s="45">
+        <v>1</v>
+      </c>
+      <c r="N23" s="45">
         <v>2</v>
       </c>
-      <c r="O23" s="7">
-        <v>1</v>
-      </c>
-      <c r="P23" s="17" t="str">
+      <c r="O23" s="45">
+        <v>1</v>
+      </c>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="30">
         <v>2019</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="34">
         <v>2</v>
       </c>
-      <c r="L24" s="7">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="L24" s="34">
+        <v>1</v>
+      </c>
+      <c r="M24" s="34">
+        <v>1</v>
+      </c>
+      <c r="N24" s="34">
         <v>2</v>
       </c>
-      <c r="O24" s="7">
-        <v>1</v>
-      </c>
-      <c r="P24" s="17" t="str">
-        <f t="shared" ref="P24:P29" si="1">IF(OR(AND(K24&gt;1,K24&lt;&gt;"-"),AND(L24&gt;1,L24&lt;&gt;"-"),AND(M24&gt;1,M24&lt;&gt;"-"),AND(N24&gt;1,N24&lt;&gt;"-"),AND(O24&gt;1,O24&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="O24" s="34">
+        <v>1</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q24" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="Q24" s="24" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>2019</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="7">
-        <v>1</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7">
-        <v>1</v>
-      </c>
-      <c r="P25" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>2020</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7">
-        <v>1</v>
-      </c>
-      <c r="P26" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>2020</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K27" s="7">
-        <v>1</v>
-      </c>
-      <c r="L27" s="7">
-        <v>1</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7">
-        <v>1</v>
-      </c>
-      <c r="P27" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>2021</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28" s="7">
-        <v>1</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7">
-        <v>1</v>
-      </c>
-      <c r="P28" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>2022</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7">
-        <v>1</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="40">
         <v>2022</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="7">
-        <v>1</v>
-      </c>
-      <c r="L30" s="7">
+      <c r="K30" s="45">
+        <v>1</v>
+      </c>
+      <c r="L30" s="45">
         <v>2</v>
       </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1</v>
-      </c>
-      <c r="O30" s="7">
-        <v>1</v>
-      </c>
-      <c r="P30" s="17" t="str">
-        <f t="shared" ref="P30:P32" si="2">IF(OR(AND(K30&gt;1,K30&lt;&gt;"-"),AND(L30&gt;1,L30&lt;&gt;"-"),AND(M30&gt;1,M30&lt;&gt;"-"),AND(N30&gt;1,N30&lt;&gt;"-"),AND(O30&gt;1,O30&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="M30" s="45">
+        <v>1</v>
+      </c>
+      <c r="N30" s="45">
+        <v>1</v>
+      </c>
+      <c r="O30" s="45">
+        <v>1</v>
+      </c>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
+      <c r="A31" s="30">
         <v>2023</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-      <c r="L31" s="7">
-        <v>1</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>1</v>
-      </c>
-      <c r="P31" s="17" t="str">
-        <f t="shared" si="2"/>
+      <c r="K31" s="34">
+        <v>1</v>
+      </c>
+      <c r="L31" s="34">
+        <v>1</v>
+      </c>
+      <c r="M31" s="34">
+        <v>1</v>
+      </c>
+      <c r="N31" s="34">
+        <v>1</v>
+      </c>
+      <c r="O31" s="34">
+        <v>1</v>
+      </c>
+      <c r="P31" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q31" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q31" s="25" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>2023</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7">
-        <v>1</v>
-      </c>
-      <c r="P32" s="17" t="str">
-        <f t="shared" si="2"/>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>2024</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33" s="7">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7">
-        <v>1</v>
-      </c>
-      <c r="P33" s="17" t="str">
-        <f t="shared" ref="P33:P34" si="3">IF(OR(AND(K33&gt;1,K33&lt;&gt;"-"),AND(L33&gt;1,L33&lt;&gt;"-"),AND(M33&gt;1,M33&lt;&gt;"-"),AND(N33&gt;1,N33&lt;&gt;"-"),AND(O33&gt;1,O33&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1</v>
+      </c>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>2024</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="7">
-        <v>1</v>
-      </c>
-      <c r="M34" s="7">
-        <v>1</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7">
-        <v>1</v>
-      </c>
-      <c r="P34" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>2025</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="H35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="17" t="str">
-        <f t="shared" ref="P35:P36" si="4">IF(OR(AND(K35&gt;1,K35&lt;&gt;"-"),AND(L35&gt;1,L35&lt;&gt;"-"),AND(M35&gt;1,M35&lt;&gt;"-"),AND(N35&gt;1,N35&lt;&gt;"-"),AND(O35&gt;1,O35&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q35" s="25"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="17" t="str">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="25"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P37" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q37" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
@@ -3672,79 +3916,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>139</v>
       </c>
     </row>
